--- a/086 wireGuard内网穿透.xlsx
+++ b/086 wireGuard内网穿透.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\myBatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A803616B-D7FE-4586-B2B4-61570B66B67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719701D5-048F-47AD-B1AA-81E969F1513E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
   <si>
     <t>086 wireGuard内网穿透</t>
   </si>
@@ -151,10 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、云服务器wireguard配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编辑wireguard配置文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,12 +332,154 @@
     <t>wg0网卡与实际网卡 网速相似</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1、云服务器wireguard配置(境外服务器，容易封端口)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostUp 是在 WireGuard VPN 接口启动后执行的指令。</t>
+  </si>
+  <si>
+    <t>PostDown 是在 WireGuard VPN 接口停止后执行的指令。</t>
+  </si>
+  <si>
+    <t>PostUp 部分</t>
+  </si>
+  <si>
+    <t>    iptables -A FORWARD -i wg0 -j ACCEPT</t>
+  </si>
+  <si>
+    <t>    iptables -A FORWARD -o wg0 -j ACCEPT</t>
+  </si>
+  <si>
+    <t>    iptables -t nat -A POSTROUTING -o enp1s0 -j MASQUERADE</t>
+  </si>
+  <si>
+    <t>PostDown 部分</t>
+  </si>
+  <si>
+    <t>    iptables -D FORWARD -i wg0 -j ACCEPT</t>
+  </si>
+  <si>
+    <t>    iptables -D FORWARD -o wg0 -j ACCEPT</t>
+  </si>
+  <si>
+    <t>    iptables -t nat -D POSTROUTING -o enp1s0 -j MASQUERADE</t>
+  </si>
+  <si>
+    <t>    -A add、-D delete、-i input、-o output、-j jump</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>#允许通过 WireGuard VPN 接口（wg0）进入的数据包。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>#允许通过 WireGuard VPN 接口（wg0）离开的数据包。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>#使用 NAT 将从 WireGuard VPN 接口（wg0）出去的数据包的源 IP 地址</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>#替换为网关接口（enp1s0）的 IP 地址，以确保返回流量正确返回到 VPN 客户端。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>#删除允许通过 WireGuard VPN 接口进入的数据包的规则。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>#删除允许通过 WireGuard VPN 接口离开的数据包的规则。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>#删除将源 IP 地址替换为网关接口 IP 地址的 NAT 规则。</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,13 +583,41 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF008000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -466,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -478,6 +644,13 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -941,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -956,10 +1129,10 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -970,7 +1143,7 @@
         <v>8</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -978,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -986,13 +1159,13 @@
         <v>2</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" s="5"/>
       <c r="K8" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1000,7 +1173,7 @@
         <v>3</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1008,13 +1181,13 @@
         <v>4</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
       <c r="K11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1022,7 +1195,7 @@
         <v>5</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1093,189 +1266,407 @@
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C33" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="4" t="s">
+    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C34" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="4" t="s">
+    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C35" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="4" t="s">
+    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C36" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="4" t="s">
+    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C38" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="4" t="s">
+      <c r="L38" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+    </row>
+    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C39" s="4"/>
+      <c r="L39" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+    </row>
+    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C40" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="4" t="s">
+      <c r="L40" s="9"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+    </row>
+    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C41" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="4" t="s">
+      <c r="L41" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+    </row>
+    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C42" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="4" t="s">
+      <c r="L42" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+    </row>
+    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C43" s="4"/>
+      <c r="L43" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+    </row>
+    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+    </row>
+    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C45" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="4" t="s">
+      <c r="L45" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+    </row>
+    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C46" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="4" t="s">
+      <c r="L46" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+    </row>
+    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="L47" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+    </row>
+    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C48" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="6" t="s">
+      <c r="L49" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C50" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C51" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C52" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C53" s="4"/>
+      <c r="L53" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C54" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C55" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C56" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L56" s="9"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+    </row>
+    <row r="59" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B59" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B59" s="2" t="s">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="1" t="s">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="1" t="s">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C62" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C63" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C64" s="4" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
@@ -1283,30 +1674,30 @@
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K81" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
